--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lpl-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lpl-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.28181966666666</v>
+        <v>34.78985266666667</v>
       </c>
       <c r="H2">
-        <v>180.845459</v>
+        <v>104.369558</v>
       </c>
       <c r="I2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="J2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.632577321642111</v>
+        <v>3.827857909208</v>
       </c>
       <c r="R2">
-        <v>5.693195894779</v>
+        <v>34.45072118287199</v>
       </c>
       <c r="S2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893999</v>
       </c>
       <c r="T2">
-        <v>0.2185248234935756</v>
+        <v>0.09964961663893998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>137.557972</v>
       </c>
       <c r="I3">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="J3">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4811625018368889</v>
+        <v>5.045076181072</v>
       </c>
       <c r="R3">
-        <v>4.330462516532</v>
+        <v>45.405685629648</v>
       </c>
       <c r="S3">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
       <c r="T3">
-        <v>0.1662183375665198</v>
+        <v>0.1313371392780071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.248258</v>
+        <v>32.884922</v>
       </c>
       <c r="H4">
-        <v>147.744774</v>
+        <v>98.654766</v>
       </c>
       <c r="I4">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="J4">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.516794803366</v>
+        <v>3.618262197816</v>
       </c>
       <c r="R4">
-        <v>4.651153230294001</v>
+        <v>32.564359780344</v>
       </c>
       <c r="S4">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
       <c r="T4">
-        <v>0.1785275717674958</v>
+        <v>0.09419326669472271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.74896166666667</v>
+        <v>7.302655333333334</v>
       </c>
       <c r="H5">
-        <v>38.246885</v>
+        <v>21.907966</v>
       </c>
       <c r="I5">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="J5">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1337833540761111</v>
+        <v>0.8034965610160001</v>
       </c>
       <c r="R5">
-        <v>1.204050186685</v>
+        <v>7.231469049144001</v>
       </c>
       <c r="S5">
-        <v>0.04621566856043692</v>
+        <v>0.02091721432066362</v>
       </c>
       <c r="T5">
-        <v>0.04621566856043693</v>
+        <v>0.02091721432066361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.431974</v>
+        <v>28.09959066666667</v>
       </c>
       <c r="H6">
-        <v>97.295922</v>
+        <v>84.298772</v>
       </c>
       <c r="I6">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="J6">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.340330324498</v>
+        <v>3.091741761872</v>
       </c>
       <c r="R6">
-        <v>3.062972920482</v>
+        <v>27.825675856848</v>
       </c>
       <c r="S6">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
       <c r="T6">
-        <v>0.1175676420036331</v>
+        <v>0.08048649887866162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.29432433333334</v>
+        <v>200.1921133333333</v>
       </c>
       <c r="H7">
-        <v>225.882973</v>
+        <v>600.57634</v>
       </c>
       <c r="I7">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="J7">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N7">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.790113541445889</v>
+        <v>22.02673784584</v>
       </c>
       <c r="R7">
-        <v>7.111021873013001</v>
+        <v>198.24064061256</v>
       </c>
       <c r="S7">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
       <c r="T7">
-        <v>0.2729459566083388</v>
+        <v>0.5734162641890049</v>
       </c>
     </row>
   </sheetData>
